--- a/STUDIO/trunk/org.openl.rules.project/test/resources/multi-module-support/test3/domain/Domain.xlsx
+++ b/STUDIO/trunk/org.openl.rules.project/test/resources/multi-module-support/test3/domain/Domain.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Datatype DomainObject1</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Properties moduleProperties</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>datatypePackage</t>
+  </si>
+  <si>
+    <t>multimodule.test3</t>
   </si>
 </sst>
 </file>
@@ -479,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:I5"/>
+  <dimension ref="A4:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -510,6 +525,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
